--- a/gameResults_250309.xlsx
+++ b/gameResults_250309.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasihara\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F852D9F5-AE88-4FC3-AFAA-7F294DC32B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21983493-12A5-4A1C-9489-785D7A1B6E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{69297134-1335-4CCF-963B-29EF78DD1110}"/>
   </bookViews>
   <sheets>
     <sheet name="gameResults" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="112">
   <si>
     <t>Othello Thinker V5.00(Alpha Go Based)</t>
   </si>
@@ -1033,6 +1046,46 @@
 OXXXOOOO_x000D_
 OOOOXXOO_x000D_
 OOOXXXXX</t>
+  </si>
+  <si>
+    <t>Black</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>White</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Black Win?</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>White Win?</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Num dice(Black)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Num dice(White)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Is black latest?</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Is white latest?</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1625,7 +1678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1634,6 +1687,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2012,23 +2068,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABC891D-B865-4647-8B49-4F1A8352A5BD}">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="15.0625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="35.0625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.9375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.7">
-      <c r="L1">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="3">
         <f>SUM(L2:L102)</f>
         <v>45</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="3">
         <f>SUM(M2:M102)</f>
         <v>50</v>
       </c>
